--- a/experiments/Excel Charts/eps2e-8-2e8,budg=eps,peers10,groups10,reg2e-2-data368-pubAll-spam-baseline-testset,epsilon_big_range.xlsx
+++ b/experiments/Excel Charts/eps2e-8-2e8,budg=eps,peers10,groups10,reg2e-2-data368-pubAll-spam-baseline-testset,epsilon_big_range.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\MML\mml-2015\experiments\Excel Charts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="420" windowWidth="26595" windowHeight="12825"/>
   </bookViews>
@@ -546,6 +551,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -553,7 +561,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nn-NO"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -564,31 +572,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="el-GR"/>
-              <a:t>ε</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="nn-NO"/>
-              <a:t>-range experiment</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -854,7 +838,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -862,11 +845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="582604416"/>
-        <c:axId val="582582848"/>
+        <c:axId val="76539008"/>
+        <c:axId val="76539568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="582604416"/>
+        <c:axId val="76539008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -877,14 +860,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="582582848"/>
+        <c:crossAx val="76539568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="582582848"/>
+        <c:axId val="76539568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -893,7 +877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="582604416"/>
+        <c:crossAx val="76539008"/>
         <c:crossesAt val="1.0000000000000004E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -920,16 +904,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -955,7 +939,7 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.79842</cdr:x>
+      <cdr:x>0.81729</cdr:x>
       <cdr:y>0.25554</cdr:y>
     </cdr:from>
     <cdr:to>
@@ -969,8 +953,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3848100" y="714375"/>
-          <a:ext cx="971550" cy="647700"/>
+          <a:off x="4772025" y="934663"/>
+          <a:ext cx="1066799" cy="847393"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1175,7 +1159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1210,7 +1194,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1421,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>

--- a/experiments/Excel Charts/eps2e-8-2e8,budg=eps,peers10,groups10,reg2e-2-data368-pubAll-spam-baseline-testset,epsilon_big_range.xlsx
+++ b/experiments/Excel Charts/eps2e-8-2e8,budg=eps,peers10,groups10,reg2e-2-data368-pubAll-spam-baseline-testset,epsilon_big_range.xlsx
@@ -845,11 +845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="76539008"/>
-        <c:axId val="76539568"/>
+        <c:axId val="112166432"/>
+        <c:axId val="112166992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76539008"/>
+        <c:axId val="112166432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -860,12 +860,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76539568"/>
+        <c:crossAx val="112166992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76539568"/>
+        <c:axId val="112166992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.70000000000000007"/>
@@ -877,7 +877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76539008"/>
+        <c:crossAx val="112166432"/>
         <c:crossesAt val="1.0000000000000004E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
